--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623813.6819268056</v>
+        <v>614757.4266015585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621782</v>
+        <v>6750972.622617709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951107</v>
+        <v>5193450.223461221</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7566926.637858439</v>
+        <v>7949695.809902034</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.942372133983372</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>173.6519965817714</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>388.2474135039329</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>198.3987443462411</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1199,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>294.7228925766561</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100.0791888769557</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>63.8307616361942</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751802</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>117.780005467875</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>343.1629119743987</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>1.697797460745242</v>
       </c>
       <c r="F19" t="n">
-        <v>106.6302643053142</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2132,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>208.933067249405</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>70.11854311890808</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.595211067239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.56310642661438</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2375,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.482758814076</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>108.2642464846189</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>205.293418382671</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2950,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>148.0772376304398</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>95.60932482615924</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2965,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>142.535930338006</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3433,13 +3435,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>19.50042337073125</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3664,10 +3666,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>98.00339857442944</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>43.3393800628341</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>70.36042284486132</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.06736062834964</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>66.26484700857081</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.2414389992588</v>
+        <v>1294.272800950781</v>
       </c>
       <c r="C2" t="n">
-        <v>128.1168483125289</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="D2" t="n">
-        <v>128.1168483125289</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="E2" t="n">
-        <v>128.1168483125289</v>
+        <v>469.8079947809482</v>
       </c>
       <c r="F2" t="n">
-        <v>128.1168483125289</v>
+        <v>48.77758273463576</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>48.77758273463576</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4331,49 +4333,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M2" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L2" t="n">
-        <v>558.6080202959273</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1075.450954962253</v>
-      </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>948.4626186637482</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>948.4626186637482</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y2" t="n">
-        <v>948.4626186637482</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.260303845748</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="C5" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4568,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4607,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.481483510237</v>
+        <v>1696.085176930675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4647,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.76508562960205</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4811,10 +4813,10 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1123.868675817053</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>740.1083749522213</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X8" t="n">
-        <v>339.4649771211738</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.76508562960205</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4884,25 +4886,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4987,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.599643065957</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
         <v>41.76508562960205</v>
@@ -5039,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>692.8507596625949</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O11" t="n">
-        <v>1209.69369432892</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1346.075159870194</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W11" t="n">
-        <v>1346.075159870194</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X11" t="n">
-        <v>1346.075159870194</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y11" t="n">
-        <v>1281.599643065957</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5123,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>1207.227134123859</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M12" t="n">
-        <v>1541.851827451147</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N12" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.598203386633</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.800055932758</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V13" t="n">
-        <v>783.9143108722797</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W13" t="n">
-        <v>504.844646381154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X13" t="n">
-        <v>266.5007842408373</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.7347881224051</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C14" t="n">
-        <v>160.7347881224051</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>160.7347881224051</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>160.7347881224051</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>160.7347881224051</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>160.7347881224051</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5276,25 +5278,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L14" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M14" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N14" t="n">
-        <v>812.7934917636817</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1346.075159870194</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>962.3148590053625</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>561.671461174315</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="Y14" t="n">
-        <v>160.7347881224051</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>751.4208778585605</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>128.1168483125289</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>128.1168483125289</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>128.1168483125289</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>128.1168483125289</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>128.1168483125289</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>128.1168483125289</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1250.250340018485</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1250.250340018485</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>1866.047797426961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>1608.987305686471</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>1259.149751022952</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>875.3894501581206</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>474.7460523270731</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>128.1168483125289</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M18" t="n">
-        <v>537.7254774811262</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.3832384434181</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C19" t="n">
-        <v>310.3832384434181</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="D19" t="n">
-        <v>310.3832384434181</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="E19" t="n">
-        <v>149.4724233117376</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1059.950756782464</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>777.1526093285881</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>777.1526093285881</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>498.0829448374625</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0829448374625</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y19" t="n">
-        <v>498.0829448374625</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="20">
@@ -5780,19 +5782,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3571.099469743748</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.456071912701</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
         <v>2959.412569640574</v>
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>385.2054556740427</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.182536368609</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.182536368609</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I22" t="n">
         <v>3132.785987910289</v>
@@ -5935,25 +5937,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>3962.358632327273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.7399823262</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1392.076815447654</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1109.278667993779</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>835.3929229333004</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>556.3232584421747</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X25" t="n">
-        <v>317.9793963018581</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2151.931129920876</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C26" t="n">
-        <v>1741.806539234146</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4552.827059799201</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U26" t="n">
-        <v>4097.330235996674</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V26" t="n">
-        <v>3747.492681333154</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W26" t="n">
-        <v>3363.732380468323</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X26" t="n">
-        <v>2963.088982637275</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.152309585365</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>286.056555253256</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>1085.931338311245</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6540,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1129.033635947823</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>2002.69172805944</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>1161.057142856951</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3561.242580456134</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4105.773792315753</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C34" t="n">
-        <v>3934.680419877469</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.185775200379</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E34" t="n">
-        <v>3614.274960068698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F34" t="n">
-        <v>3449.64383417929</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G34" t="n">
-        <v>3282.393443104833</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I34" t="n">
         <v>3132.785987910289</v>
@@ -6898,10 +6900,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>4518.209197321033</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y34" t="n">
-        <v>4293.473498709797</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>936.3214442457152</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>765.2280718074317</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>605.7334271303416</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>444.8226119986611</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>280.1914861092524</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>112.9410950347958</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7129,16 +7131,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>1124.02115063976</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>363.3304020222694</v>
+        <v>744.865727411971</v>
       </c>
       <c r="C40" t="n">
-        <v>192.2370295839859</v>
+        <v>573.7723549736875</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>414.2777102965975</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>253.366895164917</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>253.366895164917</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>253.366895164917</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W40" t="n">
-        <v>826.4099627738212</v>
+        <v>744.865727411971</v>
       </c>
       <c r="X40" t="n">
-        <v>588.0661006335047</v>
+        <v>744.865727411971</v>
       </c>
       <c r="Y40" t="n">
-        <v>363.3304020222694</v>
+        <v>744.865727411971</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7499,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U43" t="n">
-        <v>913.9039397142094</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V43" t="n">
-        <v>640.0181946537314</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W43" t="n">
-        <v>360.9485301626057</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X43" t="n">
-        <v>122.6046680222891</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>927.552149321046</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>517.4275586343161</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>517.4275586343161</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>450.4933697367699</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>812.7934917636817</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1846.479361096332</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>1738.416726816583</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>1738.416726816583</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>1337.773328985535</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1337.773328985535</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.414276561226</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1531.257211227551</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N45" t="n">
-        <v>2048.100145893876</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7988,19 +7990,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8067,7 +8069,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2302468367832</v>
+        <v>391.1981341283839</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8076,7 +8078,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,13 +8218,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M5" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8231,7 +8233,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8295,16 +8297,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>502.6011371814503</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8459,13 +8461,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8532,7 +8534,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8541,19 +8543,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>232.5803491573234</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
         <v>95.48539806284482</v>
@@ -8699,19 +8701,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>228.5110173896169</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>362.3241544056883</v>
       </c>
       <c r="M12" t="n">
-        <v>395.5690244730511</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>265.3595799407149</v>
       </c>
       <c r="M15" t="n">
-        <v>363.7739143332568</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>269.4773261669552</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>558.5343765177347</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>156.2649282762901</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>861.1477197149511</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10188,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>196.176898678467</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10428,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>675.0496721821739</v>
+        <v>429.3564034215999</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>518.9382286752104</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>296.4405581451824</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>98.31121191537929</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,19 +22555,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>300.8570402645758</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>206.2707012744117</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>9.771893862570664</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>8.679892817457926</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>207.6246004336215</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23036,7 +23038,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.2044137447347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>305.9441559029069</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>333.0965446851966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884689</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23497,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>190.0194069306842</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.293927260822272</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.76439434699211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>157.6039095196185</v>
       </c>
       <c r="F19" t="n">
-        <v>56.35455032520046</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>87.781155111411</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557883893</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>47.41693941624312</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24415,13 +24417,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.30520108346084</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.69238215420448</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>93.42449318090749</v>
+        <v>208.6070786176241</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>128.6109572718667</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.89629965588964</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25564,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>104.7720005797638</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>115.4622864852426</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25834,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.4209809967733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>343.9319663197014</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523500.1126169764</v>
+        <v>523500.1126169765</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523500.1126169764</v>
+        <v>523500.1126169765</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523500.1126169764</v>
+        <v>523500.1126169765</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523500.1126169766</v>
+        <v>523500.1126169765</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523500.1126169765</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.4605818366</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.4605818368</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797023.4605818368</v>
+        <v>797023.4605818369</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797023.460581837</v>
+        <v>797023.4605818369</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797023.4605818368</v>
+        <v>797023.4605818369</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523500.1126169765</v>
+        <v>797023.460581837</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581895</v>
@@ -26323,10 +26325,10 @@
         <v>161720.1620581895</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="G2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="H2" t="n">
         <v>246201.3674048298</v>
@@ -26335,25 +26337,25 @@
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
+        <v>246201.3674048297</v>
+      </c>
+      <c r="K2" t="n">
+        <v>246201.3674048297</v>
+      </c>
+      <c r="L2" t="n">
         <v>246201.3674048298</v>
-      </c>
-      <c r="K2" t="n">
-        <v>246201.3674048298</v>
-      </c>
-      <c r="L2" t="n">
-        <v>246201.3674048297</v>
       </c>
       <c r="M2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="N2" t="n">
+        <v>246201.3674048298</v>
+      </c>
+      <c r="O2" t="n">
         <v>246201.3674048297</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>246201.3674048298</v>
-      </c>
-      <c r="P2" t="n">
-        <v>161720.1620581895</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,19 +26432,19 @@
         <v>19747.62995624142</v>
       </c>
       <c r="G4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="P4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19747.62995624142</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98352.04286966359</v>
+        <v>-98352.04286966356</v>
       </c>
       <c r="C6" t="n">
-        <v>76603.46702345053</v>
+        <v>76603.46702345044</v>
       </c>
       <c r="D6" t="n">
         <v>76603.4670234505</v>
@@ -26534,34 +26536,34 @@
         <v>110231.0670234505</v>
       </c>
       <c r="G6" t="n">
-        <v>110231.0670234505</v>
+        <v>-31225.40471833781</v>
       </c>
       <c r="H6" t="n">
-        <v>-28473.87290367617</v>
+        <v>145143.5376159732</v>
       </c>
       <c r="I6" t="n">
         <v>145143.5376159732</v>
       </c>
       <c r="J6" t="n">
-        <v>8548.73681007819</v>
+        <v>8548.736810078102</v>
       </c>
       <c r="K6" t="n">
+        <v>145143.5376159731</v>
+      </c>
+      <c r="L6" t="n">
         <v>145143.5376159732</v>
-      </c>
-      <c r="L6" t="n">
-        <v>145143.5376159731</v>
       </c>
       <c r="M6" t="n">
         <v>145143.5376159732</v>
       </c>
       <c r="N6" t="n">
-        <v>145143.5376159731</v>
+        <v>145143.5376159732</v>
       </c>
       <c r="O6" t="n">
+        <v>-9711.205772735695</v>
+      </c>
+      <c r="P6" t="n">
         <v>145143.5376159732</v>
-      </c>
-      <c r="P6" t="n">
-        <v>110231.0670234506</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34787,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>445.0368534430332</v>
+        <v>338.0047407346339</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>135.5987266329976</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35015,16 +35017,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>445.0368534430329</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35179,13 +35181,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>179.3869557635734</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5987266329976</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>306.2096305948393</v>
+      </c>
+      <c r="M12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M12" t="n">
-        <v>338.0047407346337</v>
       </c>
       <c r="N12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
+        <v>209.2450561298658</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M15" t="n">
-        <v>306.2096305948393</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5650354103359</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>500.9700927793173</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>100.1504044654411</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>807.9543263212012</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>138.425419678467</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>617.2981931821739</v>
+        <v>371.6049244215998</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>461.373944936793</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2507825193993</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614757.4266015585</v>
+        <v>610664.5555852675</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5193450.223461221</v>
+        <v>5193450.223461222</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7949695.809902034</v>
+        <v>7949695.809902035</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>92.60130741537176</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.942372133983372</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>43.73227063629127</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>40.39502321397722</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.2474135039329</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>198.3987443462411</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.9153191477893</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0791888769557</v>
+        <v>273.5786757856024</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850578</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>388.3430365919147</v>
+        <v>291.3008531705216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.697797460745242</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.11854311890808</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
-        <v>297.1427106764702</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.482758814076</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2563,10 +2563,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>262.2425928248792</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0772376304398</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>43.7322706362915</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>31.42227043795242</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>123.2148172775827</v>
       </c>
       <c r="H37" t="n">
-        <v>19.50042337073125</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>173.5693474676043</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>43.3393800628341</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.36042284486132</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.99018014062471</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4191,7 +4191,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1294.272800950781</v>
+        <v>545.4263504732731</v>
       </c>
       <c r="C2" t="n">
-        <v>884.1482102640515</v>
+        <v>135.3017597865432</v>
       </c>
       <c r="D2" t="n">
-        <v>884.1482102640515</v>
+        <v>135.3017597865432</v>
       </c>
       <c r="E2" t="n">
-        <v>469.8079947809482</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>48.77758273463576</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>48.77758273463576</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.493980615271</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.493980615271</v>
+        <v>545.4263504732731</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.863997266186</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.085176930675</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4749,25 +4749,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
         <v>41.76508562960205</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>553.0763550687942</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="C8" t="n">
-        <v>352.673583001884</v>
+        <v>570.1611790397652</v>
       </c>
       <c r="D8" t="n">
-        <v>352.673583001884</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="Y8" t="n">
-        <v>553.0763550687942</v>
+        <v>980.2857697264951</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>1485.891263925851</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.8551754043048</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>1275.987711690022</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5047,19 +5047,19 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>1354.656425951752</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>954.0130281207041</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y11" t="n">
-        <v>553.0763550687942</v>
+        <v>1552.329808443156</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811262</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.988587952916</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5281,16 +5281,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X14" t="n">
-        <v>1695.988587952916</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1695.988587952916</v>
+        <v>1188.0442105313</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5460,25 +5460,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
         <v>41.76508562960205</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>3458.672769375206</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>4332.330861486824</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.244377387751</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>3962.358632327273</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>3962.358632327273</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3962.358632327273</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3962.358632327273</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1422.708046067539</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>1422.708046067539</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2128.160977929772</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C26" t="n">
-        <v>1718.036387243042</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.572457336103</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
         <v>899.2322418529996</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4073.56008400557</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3723.722529342051</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3339.962228477219</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.318830646172</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2538.382157594262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
         <v>179.5954603735497</v>
@@ -6463,10 +6463,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6508,7 +6508,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
         <v>1435.775802995229</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1161.057142856951</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.756849250995</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>1348.756849250995</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>1348.756849250995</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>3071.501944945938</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>3732.590116865226</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>3732.590116865226</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>3732.590116865226</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>4100.47899204261</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1679.990773808531</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1265.650558325428</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>844.6201462791155</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>435.8918621719477</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>124.9833647996657</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6967,22 +6967,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>936.3214442457152</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="C37" t="n">
-        <v>765.2280718074317</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="D37" t="n">
-        <v>605.7334271303416</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="E37" t="n">
-        <v>444.8226119986611</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="F37" t="n">
-        <v>280.1914861092524</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="G37" t="n">
-        <v>112.9410950347958</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.756849250995</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X37" t="n">
-        <v>1348.756849250995</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y37" t="n">
-        <v>1124.02115063976</v>
+        <v>405.4028154761649</v>
       </c>
     </row>
     <row r="38">
@@ -7201,19 +7201,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
         <v>3273.997480009557</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3264.314802508572</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>3721.075007995997</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N39" t="n">
-        <v>3721.075007995997</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>3721.075007995997</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.865727411971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>573.7723549736875</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>414.2777102965975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>253.366895164917</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>253.366895164917</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>253.366895164917</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1297.821136963575</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.935391903097</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.865727411971</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>744.865727411971</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.865727411971</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.394211974981</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4379.386737077264</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4105.500992016786</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.43132752566</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>3588.087465385343</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>3363.351766774108</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.328909494509</v>
+        <v>1445.819902064449</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2007.525794552979</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7839,16 +7839,16 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
         <v>93.2436976906228</v>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8069,16 +8069,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1981341283839</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>333.0441487333853</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,7 +8233,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8297,25 +8297,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>559.8834573428708</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>333.0441487333849</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>555.229727782121</v>
+        <v>68.74422894819149</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8695,22 +8695,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7878950544006</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>362.3241544056883</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
@@ -8941,7 +8941,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>265.3595799407149</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629454</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9482,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>425.1489105478544</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9962,16 +9962,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>571.1716873458281</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>754.1156070065518</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,16 +10442,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>429.3564034215999</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>429.1692081600164</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10685,7 +10685,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10907,25 +10907,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>518.9382286752104</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11141,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>504.6047195483208</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>418.5520878360603</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>190.235142735287</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>317.5955059129005</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>300.8570402645758</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>93.53324123986292</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22846,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.679892817457926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6246004336215</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>287.5039714600807</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23038,7 +23038,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>305.9441559029069</v>
+        <v>132.4446689942602</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23317,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006515</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,10 +23557,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.293927260822272</v>
+        <v>105.3361106822153</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>157.6039095196185</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>87.781155111411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>47.41693941624312</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,13 +24417,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>21.30520108346084</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>193.4209809967734</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.06597461814515</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>42.36306988612928</v>
       </c>
       <c r="H37" t="n">
-        <v>128.6109572718667</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>223.0676163851327</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>104.7720005797638</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.4622864852426</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>222.4997066824603</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523500.1126169765</v>
+        <v>523500.1126169764</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523500.1126169765</v>
+        <v>523500.1126169764</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523500.1126169765</v>
+        <v>523500.1126169764</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797023.4605818366</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797023.4605818368</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.4605818368</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797023.4605818369</v>
+        <v>797023.460581837</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581895</v>
@@ -26325,7 +26325,7 @@
         <v>161720.1620581895</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="G2" t="n">
         <v>246201.3674048298</v>
@@ -26337,13 +26337,13 @@
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
         <v>246201.3674048297</v>
       </c>
       <c r="L2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="M2" t="n">
         <v>246201.3674048298</v>
@@ -26441,10 +26441,10 @@
         <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="K4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30192.61954398332</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
@@ -26456,7 +26456,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98352.04286966356</v>
+        <v>-99029.57172905764</v>
       </c>
       <c r="C6" t="n">
-        <v>76603.46702345044</v>
+        <v>75925.93816405645</v>
       </c>
       <c r="D6" t="n">
-        <v>76603.4670234505</v>
+        <v>75925.93816405645</v>
       </c>
       <c r="E6" t="n">
-        <v>110231.0670234505</v>
+        <v>109553.5381640564</v>
       </c>
       <c r="F6" t="n">
-        <v>110231.0670234505</v>
+        <v>109553.5381640564</v>
       </c>
       <c r="G6" t="n">
-        <v>-31225.40471833781</v>
+        <v>-31405.98531098688</v>
       </c>
       <c r="H6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.9570233241</v>
       </c>
       <c r="I6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.9570233241</v>
       </c>
       <c r="J6" t="n">
-        <v>8548.736810078102</v>
+        <v>8368.156217429059</v>
       </c>
       <c r="K6" t="n">
-        <v>145143.5376159731</v>
+        <v>144962.957023324</v>
       </c>
       <c r="L6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.957023324</v>
       </c>
       <c r="M6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.9570233241</v>
       </c>
       <c r="N6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.9570233241</v>
       </c>
       <c r="O6" t="n">
-        <v>-9711.205772735695</v>
+        <v>-9891.786365384847</v>
       </c>
       <c r="P6" t="n">
-        <v>145143.5376159732</v>
+        <v>144962.9570233241</v>
       </c>
     </row>
   </sheetData>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>338.0047407346339</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35017,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>276.3515302285462</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793172</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>306.2096305948393</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
@@ -35661,7 +35661,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="O15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629454</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>370.8892755450506</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36682,16 +36682,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K29" t="n">
         <v>543.5954556656965</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>700.9222136128019</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>371.6049244215998</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>371.6049244215989</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>461.373944936793</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
